--- a/php/test.xlsx
+++ b/php/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId4"/>
+    <sheet name="Mois" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,48 +15,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>Taux de réalisation des audits internes</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Annuelle</t>
-  </si>
-  <si>
-    <t>Performance du SMQ</t>
-  </si>
-  <si>
-    <t>70.76%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>Taux de réhabilitation du plan de communication institutionnelle</t>
-  </si>
-  <si>
-    <t>65.5%</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>Taux de satisfaction client</t>
-  </si>
-  <si>
-    <t>83.5%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>Taux de traitement des réclamations</t>
-  </si>
-  <si>
-    <t>99%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Mois</t>
+  </si>
+  <si>
+    <t>janvier</t>
+  </si>
+  <si>
+    <t>fevrier</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>avril</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>juin</t>
+  </si>
+  <si>
+    <t>juillet</t>
+  </si>
+  <si>
+    <t>aout</t>
+  </si>
+  <si>
+    <t>septembre</t>
+  </si>
+  <si>
+    <t>octobre</t>
+  </si>
+  <si>
+    <t>novembre</t>
+  </si>
+  <si>
+    <t>decembre</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,103 +400,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -508,23 +470,11 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -534,12 +484,34 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/php/test.xlsx
+++ b/php/test.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Mois" sheetId="1" r:id="rId4"/>
+    <sheet name="test" sheetId="1" r:id="rId4"/>
+    <sheet name="Mois" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,11 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Résultats 2021</t>
+  </si>
+  <si>
+    <t>Cibles 2022</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
   <si>
     <t>Mois</t>
   </si>
   <si>
+    <t>Résultats 2022</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
     <t>janvier</t>
   </si>
   <si>
@@ -54,6 +76,48 @@
   </si>
   <si>
     <t>decembre</t>
+  </si>
+  <si>
+    <t>Taux de réalisation des audits internes</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Annuelle</t>
+  </si>
+  <si>
+    <t>Performance du SMQ</t>
+  </si>
+  <si>
+    <t>70.76%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>Taux de réhabilitation du plan de communication institutionnelle</t>
+  </si>
+  <si>
+    <t>65.5%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>Taux de satisfaction client</t>
+  </si>
+  <si>
+    <t>83.5%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>Taux de traitement des réclamations</t>
+  </si>
+  <si>
+    <t>99%</t>
   </si>
 </sst>
 </file>
@@ -412,15 +476,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,43 +499,310 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -543,6 +874,20 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/php/test.xlsx
+++ b/php/test.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId4"/>
-    <sheet name="Mois" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,108 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Résultats 2021</t>
-  </si>
-  <si>
-    <t>Cibles 2022</t>
-  </si>
-  <si>
-    <t>Fréquence</t>
-  </si>
-  <si>
-    <t>Mois</t>
-  </si>
-  <si>
-    <t>Résultats 2022</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>janvier</t>
-  </si>
-  <si>
-    <t>fevrier</t>
-  </si>
-  <si>
-    <t>mars</t>
-  </si>
-  <si>
-    <t>avril</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>juin</t>
-  </si>
-  <si>
-    <t>juillet</t>
-  </si>
-  <si>
-    <t>aout</t>
-  </si>
-  <si>
-    <t>septembre</t>
-  </si>
-  <si>
-    <t>octobre</t>
-  </si>
-  <si>
-    <t>novembre</t>
-  </si>
-  <si>
-    <t>decembre</t>
-  </si>
-  <si>
-    <t>Taux de réalisation des audits internes</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Annuelle</t>
-  </si>
-  <si>
-    <t>Performance du SMQ</t>
-  </si>
-  <si>
-    <t>70.76%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>Taux de réhabilitation du plan de communication institutionnelle</t>
-  </si>
-  <si>
-    <t>65.5%</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>Taux de satisfaction client</t>
-  </si>
-  <si>
-    <t>83.5%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>Taux de traitement des réclamations</t>
   </si>
   <si>
     <t>99%</t>
+  </si>
+  <si>
+    <t>90%</t>
   </si>
 </sst>
 </file>
@@ -485,9 +391,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -508,20 +412,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -533,70 +433,34 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -613,18 +477,10 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -641,18 +497,10 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -669,18 +517,10 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -697,15 +537,9 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -736,171 +570,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>